--- a/DBI.Web.EMS/121_2014_budget.xlsx
+++ b/DBI.Web.EMS/121_2014_budget.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Export" sheetId="1" r:id="Raa33498de4154085"/>
+    <sheet name="Export" sheetId="1" r:id="Rd357901ecce845fc"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Account Name</t>
   </si>
@@ -55,55 +55,235 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Utilities - Telephone (11.001.000.432.730001)</t>
-  </si>
-  <si>
-    <t>Health Insurance - Support (11.001.000.432.700053)</t>
-  </si>
-  <si>
-    <t>Health Insurance - Management (11.001.000.432.700055)</t>
-  </si>
-  <si>
-    <t>Management W. C. Insurance (11.001.000.432.610000)</t>
-  </si>
-  <si>
-    <t>Payroll Taxes - Management (11.001.000.432.700103)</t>
-  </si>
-  <si>
-    <t>Payroll Taxes - Support (11.001.000.432.700106)</t>
-  </si>
-  <si>
-    <t>Food &amp; Entertainment - Corporate (11.001.000.432.770001)</t>
-  </si>
-  <si>
-    <t>Office Expense - General (11.001.000.432.750001)</t>
-  </si>
-  <si>
-    <t>Office Expense - Computer Software (11.001.000.432.750300)</t>
-  </si>
-  <si>
-    <t>Payroll - Management (11.001.000.432.700003)</t>
-  </si>
-  <si>
-    <t>Payroll - Support (11.001.000.432.700006)</t>
-  </si>
-  <si>
-    <t>Training (11.001.000.432.810000)</t>
-  </si>
-  <si>
-    <t>Subcontractors - Consultant Fee (11.001.000.432.580010)</t>
-  </si>
-  <si>
-    <t>Per Diem (11.001.000.432.770400)</t>
-  </si>
-  <si>
-    <t>Vehicle Usage - Mileage (11.001.000.432.790000)</t>
-  </si>
-  <si>
-    <t>Travel - Corporate (11.001.000.432.760001)</t>
-  </si>
-  <si>
-    <t>Utilities - Mobil Phone (11.001.000.432.730060)</t>
+    <t>Payroll - Executive</t>
+  </si>
+  <si>
+    <t>Executive W.C. Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance - Executive</t>
+  </si>
+  <si>
+    <t>Payroll Taxes - Executive</t>
+  </si>
+  <si>
+    <t>Payroll - Management</t>
+  </si>
+  <si>
+    <t>Health Insurance - Management</t>
+  </si>
+  <si>
+    <t>Payroll Taxes - Management</t>
+  </si>
+  <si>
+    <t>Management W. C. Insurance</t>
+  </si>
+  <si>
+    <t>Payroll - Office</t>
+  </si>
+  <si>
+    <t>Health Insurance - Office</t>
+  </si>
+  <si>
+    <t>Payroll Taxes - Office</t>
+  </si>
+  <si>
+    <t>Office W.C. Insurance</t>
+  </si>
+  <si>
+    <t>Payroll - Support</t>
+  </si>
+  <si>
+    <t>Health Insurance - Support</t>
+  </si>
+  <si>
+    <t>Payroll Taxes - Support</t>
+  </si>
+  <si>
+    <t>Support W.C. Insurance</t>
+  </si>
+  <si>
+    <t>Advertising - Printing</t>
+  </si>
+  <si>
+    <t>Advertising - Donation/Ad</t>
+  </si>
+  <si>
+    <t>Advertising - Newspaper</t>
+  </si>
+  <si>
+    <t>Advertising - Recruiting</t>
+  </si>
+  <si>
+    <t>Advertising - Trade Show</t>
+  </si>
+  <si>
+    <t>Advertising - Telemarketing</t>
+  </si>
+  <si>
+    <t>Building Maintenance/Repair</t>
+  </si>
+  <si>
+    <t>Food &amp; Entertainment - Corporate</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expense Overhead</t>
+  </si>
+  <si>
+    <t>Misc Exp - Spain</t>
+  </si>
+  <si>
+    <t>Misc Exp - Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Misc Exp - Brazil</t>
+  </si>
+  <si>
+    <t>Misc Exp - Australia</t>
+  </si>
+  <si>
+    <t>Office Expense - General</t>
+  </si>
+  <si>
+    <t>Office Expense - Late Charges</t>
+  </si>
+  <si>
+    <t>Office Expense - Postage</t>
+  </si>
+  <si>
+    <t>Office Expense - Equipment Repair</t>
+  </si>
+  <si>
+    <t>Office Expense - Leased Equipment</t>
+  </si>
+  <si>
+    <t>Office Expense - Leased Furniture &amp; Fixtures</t>
+  </si>
+  <si>
+    <t>Office Expense - Computer Software</t>
+  </si>
+  <si>
+    <t>Office Expense - Printing</t>
+  </si>
+  <si>
+    <t>Office Expense - Bank Charges</t>
+  </si>
+  <si>
+    <t>Subcontracting Costs</t>
+  </si>
+  <si>
+    <t>Subcontractors - Consultant Fee</t>
+  </si>
+  <si>
+    <t>Travel - Corporate</t>
+  </si>
+  <si>
+    <t>Utilities - Telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities -  Electric</t>
+  </si>
+  <si>
+    <t>Utilities - Heat Gas/Oil</t>
+  </si>
+  <si>
+    <t>Utilities - Water</t>
+  </si>
+  <si>
+    <t>Utilities - Sewer</t>
+  </si>
+  <si>
+    <t>Utilities - Trash</t>
+  </si>
+  <si>
+    <t>Utilities - Mobil Phone</t>
+  </si>
+  <si>
+    <t>Utilities - Security</t>
+  </si>
+  <si>
+    <t>Utilities - Property Tax</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Management Truck Insurance</t>
+  </si>
+  <si>
+    <t>Management Truck Depreciation</t>
+  </si>
+  <si>
+    <t>Purchase Small Tools</t>
+  </si>
+  <si>
+    <t>Employer Contribution - 401K</t>
+  </si>
+  <si>
+    <t>Employer Contribution - Employee Disability Ins</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Advertising - General</t>
+  </si>
+  <si>
+    <t>Per Diem</t>
+  </si>
+  <si>
+    <t>Licenses &amp; Fees</t>
+  </si>
+  <si>
+    <t>Vehicle Usage - Mileage</t>
+  </si>
+  <si>
+    <t>Accounting &amp; Legal Fees</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Damages and Repairs</t>
+  </si>
+  <si>
+    <t>Property/Equipment Insurance</t>
+  </si>
+  <si>
+    <t>Officer Life Insurance Expense</t>
+  </si>
+  <si>
+    <t>Interest Exp - M &amp; T Credit Line</t>
+  </si>
+  <si>
+    <t>Depreciation - Overhead</t>
+  </si>
+  <si>
+    <t>Uniforms</t>
+  </si>
+  <si>
+    <t>Charitable Contributions</t>
+  </si>
+  <si>
+    <t>Gifts for Employees</t>
+  </si>
+  <si>
+    <t>Medical Exams</t>
+  </si>
+  <si>
+    <t>Penalties and Fines</t>
+  </si>
+  <si>
+    <t>Misc Exp - Corp Call Center</t>
+  </si>
+  <si>
+    <t>Bad Debt Expense</t>
   </si>
 </sst>
 </file>
@@ -150,7 +330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -205,43 +385,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>3400</v>
+        <v>66000</v>
       </c>
       <c r="C2" s="1">
-        <v>3400</v>
+        <v>66000</v>
       </c>
       <c r="D2" s="1">
-        <v>3400</v>
+        <v>86500</v>
       </c>
       <c r="E2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="F2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="G2" s="1">
-        <v>3400</v>
+        <v>86500</v>
       </c>
       <c r="H2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="I2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="J2" s="1">
-        <v>3400</v>
+        <v>86500</v>
       </c>
       <c r="K2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="L2" s="1">
-        <v>3400</v>
+        <v>69200</v>
       </c>
       <c r="M2" s="1">
-        <v>3400</v>
+        <v>86500</v>
       </c>
       <c r="N2" s="1">
-        <v>40800</v>
+        <v>893200</v>
       </c>
     </row>
     <row r="3">
@@ -249,43 +429,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="J3" s="1">
-        <v>1142</v>
+        <v>510</v>
       </c>
       <c r="K3" s="1">
-        <v>1523</v>
+        <v>408</v>
       </c>
       <c r="L3" s="1">
-        <v>1523</v>
+        <v>408</v>
       </c>
       <c r="M3" s="1">
-        <v>1904</v>
+        <v>510</v>
       </c>
       <c r="N3" s="1">
-        <v>6092</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="4">
@@ -293,43 +473,43 @@
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="C4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="D4" s="1">
-        <v>1987</v>
+        <v>3175</v>
       </c>
       <c r="E4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="F4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="G4" s="1">
-        <v>1987</v>
+        <v>3175</v>
       </c>
       <c r="H4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="I4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="J4" s="1">
-        <v>1987</v>
+        <v>3175</v>
       </c>
       <c r="K4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="L4" s="1">
-        <v>1590</v>
+        <v>2540</v>
       </c>
       <c r="M4" s="1">
-        <v>1987</v>
+        <v>3175</v>
       </c>
       <c r="N4" s="1">
-        <v>20668</v>
+        <v>33020</v>
       </c>
     </row>
     <row r="5">
@@ -337,43 +517,43 @@
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>65</v>
+        <v>964</v>
       </c>
       <c r="C5" s="1">
-        <v>108</v>
+        <v>964</v>
       </c>
       <c r="D5" s="1">
-        <v>81</v>
+        <v>8057</v>
       </c>
       <c r="E5" s="1">
-        <v>65</v>
+        <v>5294</v>
       </c>
       <c r="F5" s="1">
-        <v>65</v>
+        <v>5294</v>
       </c>
       <c r="G5" s="1">
-        <v>81</v>
+        <v>3045</v>
       </c>
       <c r="H5" s="1">
-        <v>65</v>
+        <v>1121</v>
       </c>
       <c r="I5" s="1">
-        <v>65</v>
+        <v>1010</v>
       </c>
       <c r="J5" s="1">
-        <v>81</v>
+        <v>1263</v>
       </c>
       <c r="K5" s="1">
-        <v>65</v>
+        <v>1010</v>
       </c>
       <c r="L5" s="1">
-        <v>65</v>
+        <v>1010</v>
       </c>
       <c r="M5" s="1">
-        <v>81</v>
+        <v>1263</v>
       </c>
       <c r="N5" s="1">
-        <v>887</v>
+        <v>30295</v>
       </c>
     </row>
     <row r="6">
@@ -381,43 +561,43 @@
         <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>157</v>
+        <v>56386</v>
       </c>
       <c r="C6" s="1">
-        <v>261</v>
+        <v>73586</v>
       </c>
       <c r="D6" s="1">
-        <v>1890</v>
+        <v>71390</v>
       </c>
       <c r="E6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="F6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="G6" s="1">
-        <v>1034</v>
+        <v>71975</v>
       </c>
       <c r="H6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="I6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="J6" s="1">
-        <v>1034</v>
+        <v>71985</v>
       </c>
       <c r="K6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="L6" s="1">
-        <v>827</v>
+        <v>57580</v>
       </c>
       <c r="M6" s="1">
-        <v>547</v>
+        <v>72309</v>
       </c>
       <c r="N6" s="1">
-        <v>9885</v>
+        <v>763111</v>
       </c>
     </row>
     <row r="7">
@@ -425,43 +605,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>7421</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>7421</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="J7" s="1">
-        <v>692</v>
+        <v>7421</v>
       </c>
       <c r="K7" s="1">
-        <v>834</v>
+        <v>5940</v>
       </c>
       <c r="L7" s="1">
-        <v>383</v>
+        <v>5940</v>
       </c>
       <c r="M7" s="1">
-        <v>478</v>
+        <v>7421</v>
       </c>
       <c r="N7" s="1">
-        <v>2387</v>
+        <v>77489</v>
       </c>
     </row>
     <row r="8">
@@ -469,43 +649,43 @@
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>4463</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>5168</v>
       </c>
       <c r="D8" s="1">
-        <v>125</v>
+        <v>7946.2</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>5270</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>5270</v>
       </c>
       <c r="G8" s="1">
-        <v>125</v>
+        <v>6427</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>5270</v>
       </c>
       <c r="I8" s="1">
-        <v>120</v>
+        <v>5270</v>
       </c>
       <c r="J8" s="1">
-        <v>150</v>
+        <v>6427</v>
       </c>
       <c r="K8" s="1">
-        <v>120</v>
+        <v>5270</v>
       </c>
       <c r="L8" s="1">
-        <v>120</v>
+        <v>5431</v>
       </c>
       <c r="M8" s="1">
-        <v>150</v>
+        <v>5779</v>
       </c>
       <c r="N8" s="1">
-        <v>1410</v>
+        <v>67991.2</v>
       </c>
     </row>
     <row r="9">
@@ -513,43 +693,43 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1">
-        <v>500</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1">
-        <v>625</v>
+        <v>308</v>
       </c>
       <c r="E9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="F9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="G9" s="1">
-        <v>625</v>
+        <v>308</v>
       </c>
       <c r="H9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="I9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="J9" s="1">
-        <v>625</v>
+        <v>308</v>
       </c>
       <c r="K9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="L9" s="1">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="M9" s="1">
-        <v>625</v>
+        <v>308</v>
       </c>
       <c r="N9" s="1">
-        <v>6500</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="10">
@@ -557,43 +737,43 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>57000</v>
+        <v>31332</v>
       </c>
       <c r="C10" s="1">
-        <v>5000</v>
+        <v>31332</v>
       </c>
       <c r="D10" s="1">
-        <v>10000</v>
+        <v>37811</v>
       </c>
       <c r="E10" s="1">
-        <v>10000</v>
+        <v>31519</v>
       </c>
       <c r="F10" s="1">
-        <v>4000</v>
+        <v>31519</v>
       </c>
       <c r="G10" s="1">
-        <v>14000</v>
+        <v>39524</v>
       </c>
       <c r="H10" s="1">
-        <v>180000</v>
+        <v>31619</v>
       </c>
       <c r="I10" s="1">
-        <v>5000</v>
+        <v>31619</v>
       </c>
       <c r="J10" s="1">
-        <v>35000</v>
+        <v>39524</v>
       </c>
       <c r="K10" s="1">
-        <v>12000</v>
+        <v>31779</v>
       </c>
       <c r="L10" s="1">
-        <v>8000</v>
+        <v>31847</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>39810</v>
       </c>
       <c r="N10" s="1">
-        <v>350000</v>
+        <v>409235</v>
       </c>
     </row>
     <row r="11">
@@ -601,43 +781,43 @@
         <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="C11" s="1">
-        <v>18012</v>
+        <v>7289</v>
       </c>
       <c r="D11" s="1">
-        <v>13515</v>
+        <v>9111</v>
       </c>
       <c r="E11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="F11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="G11" s="1">
-        <v>13515</v>
+        <v>9111</v>
       </c>
       <c r="H11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="I11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="J11" s="1">
-        <v>13515</v>
+        <v>9111</v>
       </c>
       <c r="K11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="L11" s="1">
-        <v>10812</v>
+        <v>7289</v>
       </c>
       <c r="M11" s="1">
-        <v>13839</v>
+        <v>9111</v>
       </c>
       <c r="N11" s="1">
-        <v>148080</v>
+        <v>94756</v>
       </c>
     </row>
     <row r="12">
@@ -645,43 +825,43 @@
         <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2387.3</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2387.3</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>5488.92</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>4201.95</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>3612.9</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>3012.13</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>2409.3</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>2409.3</v>
       </c>
       <c r="J12" s="1">
-        <v>3750</v>
+        <v>3012.13</v>
       </c>
       <c r="K12" s="1">
-        <v>5000</v>
+        <v>2421.3</v>
       </c>
       <c r="L12" s="1">
-        <v>5000</v>
+        <v>2421.3</v>
       </c>
       <c r="M12" s="1">
-        <v>6250</v>
+        <v>3027.13</v>
       </c>
       <c r="N12" s="1">
-        <v>20000</v>
+        <v>36790.96</v>
       </c>
     </row>
     <row r="13">
@@ -689,43 +869,43 @@
         <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>80</v>
+        <v>187.2</v>
       </c>
       <c r="C13" s="1">
-        <v>80</v>
+        <v>187.2</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>226.5</v>
       </c>
       <c r="E13" s="1">
-        <v>80</v>
+        <v>188.2</v>
       </c>
       <c r="F13" s="1">
-        <v>80</v>
+        <v>188.2</v>
       </c>
       <c r="G13" s="1">
-        <v>100</v>
+        <v>236.5</v>
       </c>
       <c r="H13" s="1">
-        <v>80</v>
+        <v>189.2</v>
       </c>
       <c r="I13" s="1">
-        <v>80</v>
+        <v>189.2</v>
       </c>
       <c r="J13" s="1">
-        <v>100</v>
+        <v>236.5</v>
       </c>
       <c r="K13" s="1">
-        <v>1080</v>
+        <v>190.2</v>
       </c>
       <c r="L13" s="1">
-        <v>1080</v>
+        <v>190.2</v>
       </c>
       <c r="M13" s="1">
-        <v>1350</v>
+        <v>237.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4290</v>
+        <v>2446.6</v>
       </c>
     </row>
     <row r="14">
@@ -733,43 +913,43 @@
         <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>2000</v>
+        <v>91671</v>
       </c>
       <c r="C14" s="1">
-        <v>2000</v>
+        <v>102171</v>
       </c>
       <c r="D14" s="1">
-        <v>2500</v>
+        <v>120043</v>
       </c>
       <c r="E14" s="1">
-        <v>2000</v>
+        <v>96035</v>
       </c>
       <c r="F14" s="1">
-        <v>2000</v>
+        <v>96227</v>
       </c>
       <c r="G14" s="1">
-        <v>2500</v>
+        <v>121616</v>
       </c>
       <c r="H14" s="1">
-        <v>2000</v>
+        <v>97294</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>97294</v>
       </c>
       <c r="J14" s="1">
-        <v>2500</v>
+        <v>125366</v>
       </c>
       <c r="K14" s="1">
-        <v>2000</v>
+        <v>102467</v>
       </c>
       <c r="L14" s="1">
-        <v>2000</v>
+        <v>102467</v>
       </c>
       <c r="M14" s="1">
-        <v>2500</v>
+        <v>128082</v>
       </c>
       <c r="N14" s="1">
-        <v>26000</v>
+        <v>1280733</v>
       </c>
     </row>
     <row r="15">
@@ -777,43 +957,43 @@
         <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>200</v>
+        <v>10794</v>
       </c>
       <c r="C15" s="1">
-        <v>200</v>
+        <v>13494</v>
       </c>
       <c r="D15" s="1">
-        <v>250</v>
+        <v>17226</v>
       </c>
       <c r="E15" s="1">
-        <v>200</v>
+        <v>14018</v>
       </c>
       <c r="F15" s="1">
-        <v>200</v>
+        <v>14018</v>
       </c>
       <c r="G15" s="1">
-        <v>250</v>
+        <v>17226</v>
       </c>
       <c r="H15" s="1">
-        <v>240</v>
+        <v>14018</v>
       </c>
       <c r="I15" s="1">
-        <v>240</v>
+        <v>14018</v>
       </c>
       <c r="J15" s="1">
-        <v>300</v>
+        <v>18368</v>
       </c>
       <c r="K15" s="1">
-        <v>240</v>
+        <v>15541</v>
       </c>
       <c r="L15" s="1">
-        <v>240</v>
+        <v>15541</v>
       </c>
       <c r="M15" s="1">
-        <v>300</v>
+        <v>19130</v>
       </c>
       <c r="N15" s="1">
-        <v>2860</v>
+        <v>183392</v>
       </c>
     </row>
     <row r="16">
@@ -821,43 +1001,43 @@
         <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>120</v>
+        <v>8366</v>
       </c>
       <c r="C16" s="1">
-        <v>120</v>
+        <v>8940</v>
       </c>
       <c r="D16" s="1">
-        <v>150</v>
+        <v>10915</v>
       </c>
       <c r="E16" s="1">
-        <v>120</v>
+        <v>8732</v>
       </c>
       <c r="F16" s="1">
-        <v>120</v>
+        <v>8732</v>
       </c>
       <c r="G16" s="1">
-        <v>150</v>
+        <v>10926</v>
       </c>
       <c r="H16" s="1">
-        <v>140</v>
+        <v>8740</v>
       </c>
       <c r="I16" s="1">
-        <v>140</v>
+        <v>8740</v>
       </c>
       <c r="J16" s="1">
-        <v>175</v>
+        <v>11618</v>
       </c>
       <c r="K16" s="1">
-        <v>140</v>
+        <v>9650</v>
       </c>
       <c r="L16" s="1">
-        <v>140</v>
+        <v>9199</v>
       </c>
       <c r="M16" s="1">
-        <v>175</v>
+        <v>11499</v>
       </c>
       <c r="N16" s="1">
-        <v>1690</v>
+        <v>116057</v>
       </c>
     </row>
     <row r="17">
@@ -865,43 +1045,43 @@
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="C17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="D17" s="1">
-        <v>2500</v>
+        <v>2162</v>
       </c>
       <c r="E17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="F17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="G17" s="1">
-        <v>2500</v>
+        <v>2162</v>
       </c>
       <c r="H17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="J17" s="1">
-        <v>2500</v>
+        <v>2162</v>
       </c>
       <c r="K17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="L17" s="1">
-        <v>2000</v>
+        <v>1732</v>
       </c>
       <c r="M17" s="1">
-        <v>2500</v>
+        <v>2162</v>
       </c>
       <c r="N17" s="1">
-        <v>26000</v>
+        <v>22504</v>
       </c>
     </row>
     <row r="18">
@@ -909,43 +1089,2683 @@
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="H18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="I18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="J18" s="1">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="K18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="L18" s="1">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M18" s="1">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="N18" s="1">
-        <v>1560</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>500</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5769</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13615</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5769</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5115</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5769</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4615</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7269</v>
+      </c>
+      <c r="N21" s="1">
+        <v>70996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>385</v>
+      </c>
+      <c r="C22" s="1">
+        <v>385</v>
+      </c>
+      <c r="D22" s="1">
+        <v>481</v>
+      </c>
+      <c r="E22" s="1">
+        <v>385</v>
+      </c>
+      <c r="F22" s="1">
+        <v>385</v>
+      </c>
+      <c r="G22" s="1">
+        <v>481</v>
+      </c>
+      <c r="H22" s="1">
+        <v>385</v>
+      </c>
+      <c r="I22" s="1">
+        <v>385</v>
+      </c>
+      <c r="J22" s="1">
+        <v>481</v>
+      </c>
+      <c r="K22" s="1">
+        <v>385</v>
+      </c>
+      <c r="L22" s="1">
+        <v>385</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1481</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>500</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30048</v>
+      </c>
+      <c r="E24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="F24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30048</v>
+      </c>
+      <c r="H24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="I24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="J24" s="1">
+        <v>30048</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="L24" s="1">
+        <v>24038</v>
+      </c>
+      <c r="M24" s="1">
+        <v>30048</v>
+      </c>
+      <c r="N24" s="1">
+        <v>312496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7099</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6209</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8781</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6474</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8584</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7011</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6359</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7059</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7096</v>
+      </c>
+      <c r="K25" s="1">
+        <v>6654</v>
+      </c>
+      <c r="L25" s="1">
+        <v>8079</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8660</v>
+      </c>
+      <c r="N25" s="1">
+        <v>88065</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-10385</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-11885</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-11885</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-9908</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-11885</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-125304</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15193</v>
+      </c>
+      <c r="E31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="F31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="G31" s="1">
+        <v>15193</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="J31" s="1">
+        <v>15193</v>
+      </c>
+      <c r="K31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="L31" s="1">
+        <v>12162</v>
+      </c>
+      <c r="M31" s="1">
+        <v>15189</v>
+      </c>
+      <c r="N31" s="1">
+        <v>158064</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3269</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3269</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3269</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2615</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3269</v>
+      </c>
+      <c r="N32" s="1">
+        <v>33996</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12098</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12098</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="I33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="J33" s="1">
+        <v>12098</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="L33" s="1">
+        <v>9678</v>
+      </c>
+      <c r="M33" s="1">
+        <v>12098</v>
+      </c>
+      <c r="N33" s="1">
+        <v>125816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2206</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2206</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2206</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1765</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2206</v>
+      </c>
+      <c r="N34" s="1">
+        <v>22944</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="E35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="F35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="G35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="H35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="I35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="J35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="K35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="L35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="M35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="N35" s="1">
+        <v>226896</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="N36" s="1">
+        <v>30684</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>61934</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5154</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10192</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10154</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4154</v>
+      </c>
+      <c r="G37" s="1">
+        <v>14192</v>
+      </c>
+      <c r="H37" s="1">
+        <v>180154</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5154</v>
+      </c>
+      <c r="J37" s="1">
+        <v>35192</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12154</v>
+      </c>
+      <c r="L37" s="1">
+        <v>8154</v>
+      </c>
+      <c r="M37" s="1">
+        <v>10192</v>
+      </c>
+      <c r="N37" s="1">
+        <v>356780</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6614</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6614</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6614</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5292</v>
+      </c>
+      <c r="M38" s="1">
+        <v>6614</v>
+      </c>
+      <c r="N38" s="1">
+        <v>68792</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="L39" s="1">
+        <v>16000</v>
+      </c>
+      <c r="M39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N39" s="1">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9952</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9952</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="J40" s="1">
+        <v>9952</v>
+      </c>
+      <c r="K40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="L40" s="1">
+        <v>7962</v>
+      </c>
+      <c r="M40" s="1">
+        <v>9952</v>
+      </c>
+      <c r="N40" s="1">
+        <v>103504</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3654</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3654</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3654</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2923</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3654</v>
+      </c>
+      <c r="N41" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>32800</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13695</v>
+      </c>
+      <c r="D42" s="1">
+        <v>54461</v>
+      </c>
+      <c r="E42" s="1">
+        <v>27420</v>
+      </c>
+      <c r="F42" s="1">
+        <v>28155</v>
+      </c>
+      <c r="G42" s="1">
+        <v>34351</v>
+      </c>
+      <c r="H42" s="1">
+        <v>22435</v>
+      </c>
+      <c r="I42" s="1">
+        <v>18970</v>
+      </c>
+      <c r="J42" s="1">
+        <v>25151</v>
+      </c>
+      <c r="K42" s="1">
+        <v>50453</v>
+      </c>
+      <c r="L42" s="1">
+        <v>23110</v>
+      </c>
+      <c r="M42" s="1">
+        <v>27902</v>
+      </c>
+      <c r="N42" s="1">
+        <v>358903</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="D43" s="1">
+        <v>11171</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="G43" s="1">
+        <v>11171</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="J43" s="1">
+        <v>11171</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="L43" s="1">
+        <v>9627</v>
+      </c>
+      <c r="M43" s="1">
+        <v>11171</v>
+      </c>
+      <c r="N43" s="1">
+        <v>121700</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6771</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6771</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6771</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5417</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6771</v>
+      </c>
+      <c r="N44" s="1">
+        <v>70420</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3317</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3317</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3317</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2654</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3317</v>
+      </c>
+      <c r="N45" s="1">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>612</v>
+      </c>
+      <c r="C46" s="1">
+        <v>612</v>
+      </c>
+      <c r="D46" s="1">
+        <v>764</v>
+      </c>
+      <c r="E46" s="1">
+        <v>612</v>
+      </c>
+      <c r="F46" s="1">
+        <v>612</v>
+      </c>
+      <c r="G46" s="1">
+        <v>764</v>
+      </c>
+      <c r="H46" s="1">
+        <v>612</v>
+      </c>
+      <c r="I46" s="1">
+        <v>612</v>
+      </c>
+      <c r="J46" s="1">
+        <v>764</v>
+      </c>
+      <c r="K46" s="1">
+        <v>612</v>
+      </c>
+      <c r="L46" s="1">
+        <v>612</v>
+      </c>
+      <c r="M46" s="1">
+        <v>764</v>
+      </c>
+      <c r="N46" s="1">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1">
+        <v>23</v>
+      </c>
+      <c r="I47" s="1">
+        <v>23</v>
+      </c>
+      <c r="J47" s="1">
+        <v>23</v>
+      </c>
+      <c r="K47" s="1">
+        <v>23</v>
+      </c>
+      <c r="L47" s="1">
+        <v>23</v>
+      </c>
+      <c r="M47" s="1">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>357</v>
+      </c>
+      <c r="C48" s="1">
+        <v>357</v>
+      </c>
+      <c r="D48" s="1">
+        <v>357</v>
+      </c>
+      <c r="E48" s="1">
+        <v>357</v>
+      </c>
+      <c r="F48" s="1">
+        <v>357</v>
+      </c>
+      <c r="G48" s="1">
+        <v>357</v>
+      </c>
+      <c r="H48" s="1">
+        <v>357</v>
+      </c>
+      <c r="I48" s="1">
+        <v>357</v>
+      </c>
+      <c r="J48" s="1">
+        <v>357</v>
+      </c>
+      <c r="K48" s="1">
+        <v>357</v>
+      </c>
+      <c r="L48" s="1">
+        <v>357</v>
+      </c>
+      <c r="M48" s="1">
+        <v>357</v>
+      </c>
+      <c r="N48" s="1">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6135</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6135</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7069</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7069</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7069</v>
+      </c>
+      <c r="K49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="L49" s="1">
+        <v>6235</v>
+      </c>
+      <c r="M49" s="1">
+        <v>7069</v>
+      </c>
+      <c r="N49" s="1">
+        <v>77956</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>568</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>568</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>568</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>568</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>19000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2902</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2902</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3577</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3577</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3577</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2962</v>
+      </c>
+      <c r="M52" s="1">
+        <v>3577</v>
+      </c>
+      <c r="N52" s="1">
+        <v>37884</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2623</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2623</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3204</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3204</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3204</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2723</v>
+      </c>
+      <c r="M53" s="1">
+        <v>3204</v>
+      </c>
+      <c r="N53" s="1">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5274</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5274</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6717</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5874</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6074</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6917</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6274</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6674</v>
+      </c>
+      <c r="J54" s="1">
+        <v>6917</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6274</v>
+      </c>
+      <c r="L54" s="1">
+        <v>6174</v>
+      </c>
+      <c r="M54" s="1">
+        <v>6517</v>
+      </c>
+      <c r="N54" s="1">
+        <v>74960</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1">
+        <v>949</v>
+      </c>
+      <c r="C55" s="1">
+        <v>949</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="N55" s="1">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5866</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5866</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="K56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="L56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="M56" s="1">
+        <v>6066</v>
+      </c>
+      <c r="N56" s="1">
+        <v>72392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1">
+        <v>192</v>
+      </c>
+      <c r="C57" s="1">
+        <v>192</v>
+      </c>
+      <c r="D57" s="1">
+        <v>215</v>
+      </c>
+      <c r="E57" s="1">
+        <v>192</v>
+      </c>
+      <c r="F57" s="1">
+        <v>192</v>
+      </c>
+      <c r="G57" s="1">
+        <v>215</v>
+      </c>
+      <c r="H57" s="1">
+        <v>192</v>
+      </c>
+      <c r="I57" s="1">
+        <v>192</v>
+      </c>
+      <c r="J57" s="1">
+        <v>215</v>
+      </c>
+      <c r="K57" s="1">
+        <v>192</v>
+      </c>
+      <c r="L57" s="1">
+        <v>192</v>
+      </c>
+      <c r="M57" s="1">
+        <v>215</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>12500</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>12500</v>
+      </c>
+      <c r="K58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M58" s="1">
+        <v>12500</v>
+      </c>
+      <c r="N58" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3462</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3462</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3462</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2769</v>
+      </c>
+      <c r="M59" s="1">
+        <v>153462</v>
+      </c>
+      <c r="N59" s="1">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="C60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="D60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="E60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="F60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="G60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="H60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="I60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="J60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="K60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="L60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="M60" s="1">
+        <v>34978</v>
+      </c>
+      <c r="N60" s="1">
+        <v>419736</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1662</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1662</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1662</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1469</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1662</v>
+      </c>
+      <c r="N61" s="1">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1663</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1213</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2523</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1488</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2038</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2348</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1478</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1703</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1748</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2128</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1503</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2002</v>
+      </c>
+      <c r="N62" s="1">
+        <v>21835</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6985</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6481</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6710</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6681</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="J63" s="1">
+        <v>8381</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5185</v>
+      </c>
+      <c r="M63" s="1">
+        <v>7231</v>
+      </c>
+      <c r="N63" s="1">
+        <v>73579</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1208</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1258</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1447</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1408</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1558</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1447</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1228</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1378</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1472</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1228</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1578</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1672</v>
+      </c>
+      <c r="N64" s="1">
+        <v>16882</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N65" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1">
+        <v>26019</v>
+      </c>
+      <c r="C66" s="1">
+        <v>69119</v>
+      </c>
+      <c r="D66" s="1">
+        <v>233306</v>
+      </c>
+      <c r="E66" s="1">
+        <v>92619</v>
+      </c>
+      <c r="F66" s="1">
+        <v>198719</v>
+      </c>
+      <c r="G66" s="1">
+        <v>156030</v>
+      </c>
+      <c r="H66" s="1">
+        <v>162269</v>
+      </c>
+      <c r="I66" s="1">
+        <v>24319</v>
+      </c>
+      <c r="J66" s="1">
+        <v>24173</v>
+      </c>
+      <c r="K66" s="1">
+        <v>233519</v>
+      </c>
+      <c r="L66" s="1">
+        <v>43419</v>
+      </c>
+      <c r="M66" s="1">
+        <v>259823</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1523334</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>5000</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1555</v>
+      </c>
+      <c r="N68" s="1">
+        <v>18660</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1975</v>
+      </c>
+      <c r="N69" s="1">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="C70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="D70" s="1">
+        <v>211771</v>
+      </c>
+      <c r="E70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="F70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="G70" s="1">
+        <v>211771</v>
+      </c>
+      <c r="H70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="I70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="J70" s="1">
+        <v>211771</v>
+      </c>
+      <c r="K70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="L70" s="1">
+        <v>169417</v>
+      </c>
+      <c r="M70" s="1">
+        <v>211771</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2202420</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="C71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="D71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="E71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="F71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="G71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="H71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="I71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="J71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="K71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="L71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="M71" s="1">
+        <v>84872</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1018464</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4319</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4319</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="I72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4319</v>
+      </c>
+      <c r="K72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="L72" s="1">
+        <v>3463</v>
+      </c>
+      <c r="M72" s="1">
+        <v>4319</v>
+      </c>
+      <c r="N72" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14634</v>
+      </c>
+      <c r="C73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="D73" s="1">
+        <v>17356</v>
+      </c>
+      <c r="E73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="F73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="G73" s="1">
+        <v>17356</v>
+      </c>
+      <c r="H73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="I73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="J73" s="1">
+        <v>17356</v>
+      </c>
+      <c r="K73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="L73" s="1">
+        <v>13884</v>
+      </c>
+      <c r="M73" s="1">
+        <v>17360</v>
+      </c>
+      <c r="N73" s="1">
+        <v>181250</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="C74" s="1">
+        <v>69700</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6582</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="F74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6582</v>
+      </c>
+      <c r="H74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="I74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="J74" s="1">
+        <v>6582</v>
+      </c>
+      <c r="K74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="L74" s="1">
+        <v>6482</v>
+      </c>
+      <c r="M74" s="1">
+        <v>6586</v>
+      </c>
+      <c r="N74" s="1">
+        <v>141406</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1250</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1250</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1250</v>
+      </c>
+      <c r="N75" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1">
+        <v>400</v>
+      </c>
+      <c r="C76" s="1">
+        <v>550</v>
+      </c>
+      <c r="D76" s="1">
+        <v>500</v>
+      </c>
+      <c r="E76" s="1">
+        <v>400</v>
+      </c>
+      <c r="F76" s="1">
+        <v>550</v>
+      </c>
+      <c r="G76" s="1">
+        <v>500</v>
+      </c>
+      <c r="H76" s="1">
+        <v>400</v>
+      </c>
+      <c r="I76" s="1">
+        <v>400</v>
+      </c>
+      <c r="J76" s="1">
+        <v>500</v>
+      </c>
+      <c r="K76" s="1">
+        <v>400</v>
+      </c>
+      <c r="L76" s="1">
+        <v>400</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N76" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="C77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="D77" s="1">
+        <v>15385</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="F77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="G77" s="1">
+        <v>15385</v>
+      </c>
+      <c r="H77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="I77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="J77" s="1">
+        <v>15385</v>
+      </c>
+      <c r="K77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="L77" s="1">
+        <v>12308</v>
+      </c>
+      <c r="M77" s="1">
+        <v>15385</v>
+      </c>
+      <c r="N77" s="1">
+        <v>160004</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N78" s="1">
+        <v>24000</v>
       </c>
     </row>
   </sheetData>
